--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ACDE/10/seed5/result_data_RandomForest.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.5659</v>
+        <v>-10.63479999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.117099999999993</v>
+        <v>-7.012999999999992</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -576,7 +576,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>16.1345</v>
+        <v>16.07970000000001</v>
       </c>
     </row>
     <row r="9">
@@ -627,12 +627,12 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>16.83719999999999</v>
+        <v>16.74599999999999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.5242</v>
+        <v>-21.53039999999999</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -672,13 +672,13 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.7805</v>
+        <v>-13.83079999999999</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
       </c>
       <c r="E14" t="n">
-        <v>16.521</v>
+        <v>16.5531</v>
       </c>
     </row>
     <row r="15">
@@ -695,7 +695,7 @@
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.2777</v>
+        <v>16.07930000000001</v>
       </c>
     </row>
     <row r="16">
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.7576</v>
+        <v>-12.6886</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.4388</v>
+        <v>-7.612099999999998</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.1246</v>
+        <v>-12.9672</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -972,7 +972,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-21.36609999999999</v>
+        <v>-21.18809999999998</v>
       </c>
       <c r="B32" t="n">
         <v>3.16</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-13.10020000000001</v>
+        <v>-13.20580000000001</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1040,7 +1040,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>-19.7056</v>
+        <v>-19.6256</v>
       </c>
       <c r="B36" t="n">
         <v>9.84</v>
@@ -1052,7 +1052,7 @@
         <v>-9.050000000000001</v>
       </c>
       <c r="E36" t="n">
-        <v>16.11710000000001</v>
+        <v>16.28430000000001</v>
       </c>
     </row>
     <row r="37">
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.73769999999999</v>
+        <v>-13.8135</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>-19.282</v>
+        <v>-19.2414</v>
       </c>
       <c r="B38" t="n">
         <v>9.66</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.332300000000003</v>
+        <v>-7.391900000000001</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-14.1951</v>
+        <v>-14.0049</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>-21.5893</v>
+        <v>-21.5607</v>
       </c>
       <c r="B46" t="n">
         <v>4.17</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>-21.6382</v>
+        <v>-21.9346</v>
       </c>
       <c r="B54" t="n">
         <v>6.01</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-22.49660000000001</v>
+        <v>-22.45500000000001</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-14.61819999999998</v>
+        <v>-14.40799999999999</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.233399999999994</v>
+        <v>-8.536999999999994</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1528,7 +1528,7 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.4303</v>
+        <v>17.46339999999999</v>
       </c>
     </row>
     <row r="65">
@@ -1567,7 +1567,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>-21.56059999999997</v>
+        <v>-21.53999999999998</v>
       </c>
       <c r="B67" t="n">
         <v>5.53</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.64369999999997</v>
+        <v>-21.64849999999997</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>-21.78509999999999</v>
+        <v>-21.64899999999998</v>
       </c>
       <c r="B72" t="n">
         <v>6.81</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.507500000000002</v>
+        <v>-8.607200000000004</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1950,10 +1950,10 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.087499999999997</v>
+        <v>-6.193999999999996</v>
       </c>
       <c r="E89" t="n">
-        <v>19.13380000000002</v>
+        <v>18.42980000000001</v>
       </c>
     </row>
     <row r="90">
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.49630000000002</v>
+        <v>-21.5127</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1984,7 +1984,7 @@
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-6.057899999999995</v>
+        <v>-6.140199999999994</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-5.960999999999999</v>
+        <v>-6.033999999999997</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>-20.35079999999999</v>
+        <v>-20.37259999999999</v>
       </c>
       <c r="B99" t="n">
         <v>8.42</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.1389</v>
+        <v>-12.8134</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-14.44469999999999</v>
+        <v>-13.92310000000001</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.855000000000001</v>
+        <v>-7.7399</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
